--- a/memoria/documentación PCL - FPGA/tests_tiempos/test-tfg.xlsx
+++ b/memoria/documentación PCL - FPGA/tests_tiempos/test-tfg.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pract\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Desktop\trabajos y apuntes\TFG\TFG-master\memoria\documentación PCL - FPGA\tests_tiempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{772299DF-9F6E-4CFB-9C4A-9563D39B898C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19512" windowHeight="4668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="24">
   <si>
     <t>normal estimation radius</t>
   </si>
@@ -92,12 +94,21 @@
   <si>
     <t>x0</t>
   </si>
+  <si>
+    <t>milk_cartoon_all_small_clorox.pcd</t>
+  </si>
+  <si>
+    <t>cturtle.pcd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +152,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -148,12 +166,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,24 +204,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,101 +563,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
         <v>2E-3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f>E2/5</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>E2/2</f>
         <v>0.01</v>
       </c>
-      <c r="E2" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="8">
         <f>E2*2</f>
         <v>0.04</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f>E2*5</f>
         <v>0.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -601,14 +681,14 @@
       <c r="H4">
         <v>0.01</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -632,14 +712,14 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -663,14 +743,14 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -694,62 +774,62 @@
       <c r="H7">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3.0336999999999999E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3.3725999999999999E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.107999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.15607699999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.32461600000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1.12544</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1.6228</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -761,10 +841,10 @@
       <c r="D10">
         <v>0.45189499999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.453656</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.45300400000000002</v>
       </c>
       <c r="G10">
@@ -773,134 +853,134 @@
       <c r="H10">
         <v>0.45280100000000001</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
         <v>13</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>19</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>11</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="4">
         <f>E15/5</f>
         <v>2E-3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="E15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="7">
         <v>0.05</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B16">
@@ -925,8 +1005,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17">
@@ -951,8 +1031,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B18">
@@ -977,24 +1057,24 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.15582099999999999</v>
       </c>
       <c r="C20">
@@ -1016,110 +1096,110 @@
         <v>0.15622</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0.60549500000000001</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.72824199999999994</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.69556099999999998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.453656</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.13172600000000001</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>1.5330999999999999E-2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>1.4458E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>37</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>13</v>
       </c>
-      <c r="F22" s="5">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1">
@@ -1144,34 +1224,34 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>10</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B28">
@@ -1196,8 +1276,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B29">
@@ -1222,27 +1302,27 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B31">
         <v>0.155749</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>0.155694</v>
       </c>
       <c r="D31">
@@ -1261,120 +1341,120 @@
         <v>0.15581300000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.32869599999999999</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>0.42935200000000001</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.453656</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>0.45464500000000002</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.45492899999999997</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>0.454428</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>0.455509</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>9</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>13</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>13</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>13</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>13</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>13</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1">
@@ -1405,8 +1485,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="1">
@@ -1437,40 +1517,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>2</v>
       </c>
-      <c r="D39" s="5">
-        <v>3</v>
-      </c>
-      <c r="E39" s="5">
-        <v>4</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
         <v>5</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>10</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>15</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>20</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B40">
@@ -1501,23 +1581,23 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="K41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B42">
@@ -1535,10 +1615,10 @@
       <c r="F42">
         <v>0.155</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>0.155</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>0.155</v>
       </c>
       <c r="I42">
@@ -1548,142 +1628,142 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>0.517822</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>0.44728699999999999</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>0.44223600000000002</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>0.453656</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>0.46997800000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>0.58033699999999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>0.70225099999999996</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>0.82725199999999999</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>0.95308800000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="5">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
         <v>8</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>11</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>13</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>13</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>21</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>27</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>21</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="1">
@@ -1711,8 +1791,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="1">
@@ -1740,8 +1820,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="1">
@@ -1769,52 +1849,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
         <v>1E-4</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f>F51/5</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F51" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F51" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G51" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I51" s="5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I51" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1">
@@ -1842,8 +1922,8 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="1">
@@ -1871,32 +1951,32 @@
         <v>0.45283699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>15</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>15</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>15</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>15</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>13</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>10</v>
       </c>
-      <c r="H55" s="5">
-        <v>3</v>
-      </c>
-      <c r="I55" s="5">
+      <c r="H55" s="4">
+        <v>3</v>
+      </c>
+      <c r="I55" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1907,240 +1987,1990 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H11"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="C2" s="21">
+        <f>E2/5</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="21">
+        <f>E2/2</f>
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="21">
+        <f>E2*2</f>
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="34">
+        <v>53.223199999999999</v>
+      </c>
+      <c r="C9" s="34">
+        <v>94.910200000000003</v>
+      </c>
+      <c r="D9" s="34">
+        <v>320.09100000000001</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1133</v>
+      </c>
+      <c r="F9" s="34">
+        <v>143.30099999999999</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29">
+        <v>56.552500000000002</v>
+      </c>
+      <c r="C10" s="29">
+        <v>56.676200000000001</v>
+      </c>
+      <c r="D10" s="29">
+        <v>56.737400000000001</v>
+      </c>
+      <c r="E10" s="29">
+        <v>56.845500000000001</v>
+      </c>
+      <c r="F10" s="29">
+        <v>56.846800000000002</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>71</v>
+      </c>
+      <c r="D11" s="35">
+        <v>316</v>
+      </c>
+      <c r="E11" s="35">
+        <v>404</v>
+      </c>
+      <c r="F11" s="35">
+        <v>169</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24">
+        <f>D16/5</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1133</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="33">
+        <v>327.09500000000003</v>
+      </c>
+      <c r="C22" s="33">
+        <v>133.02199999999999</v>
+      </c>
+      <c r="D22" s="34">
+        <v>56.845500000000001</v>
+      </c>
+      <c r="E22" s="33">
+        <v>23.401</v>
+      </c>
+      <c r="F22" s="33">
+        <v>11.3278</v>
+      </c>
+      <c r="G22" s="33">
+        <v>9.3020899999999997</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="33">
+        <v>1839</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1011</v>
+      </c>
+      <c r="D23" s="35">
+        <v>404</v>
+      </c>
+      <c r="E23" s="33">
+        <v>99</v>
+      </c>
+      <c r="F23" s="33">
+        <v>14</v>
+      </c>
+      <c r="G23" s="33">
+        <v>9</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24">
+        <v>4</v>
+      </c>
+      <c r="E29" s="24">
+        <v>5</v>
+      </c>
+      <c r="F29" s="24">
+        <v>10</v>
+      </c>
+      <c r="G29" s="24">
+        <v>20</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="19">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19">
+        <v>4</v>
+      </c>
+      <c r="F30" s="19">
+        <v>4</v>
+      </c>
+      <c r="G30" s="19">
+        <v>4</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1133</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="33">
+        <v>42.0242</v>
+      </c>
+      <c r="C34" s="33">
+        <v>53.5413</v>
+      </c>
+      <c r="D34" s="34">
+        <v>56.845500000000001</v>
+      </c>
+      <c r="E34" s="33">
+        <v>57.815399999999997</v>
+      </c>
+      <c r="F34" s="33">
+        <v>57.848500000000001</v>
+      </c>
+      <c r="G34" s="33">
+        <v>57.8857</v>
+      </c>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="33">
+        <v>321</v>
+      </c>
+      <c r="C35" s="33">
+        <v>387</v>
+      </c>
+      <c r="D35" s="35">
+        <v>404</v>
+      </c>
+      <c r="E35" s="33">
+        <v>418</v>
+      </c>
+      <c r="F35" s="33">
+        <v>421</v>
+      </c>
+      <c r="G35" s="33">
+        <v>421</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="23">
+        <v>3</v>
+      </c>
+      <c r="C41" s="23">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23">
+        <v>3</v>
+      </c>
+      <c r="E41" s="23">
+        <v>3</v>
+      </c>
+      <c r="F41" s="23">
+        <v>3</v>
+      </c>
+      <c r="G41" s="23">
+        <v>3</v>
+      </c>
+      <c r="H41" s="23">
+        <v>3</v>
+      </c>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="24">
+        <v>1</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2</v>
+      </c>
+      <c r="D42" s="24">
+        <v>4</v>
+      </c>
+      <c r="E42" s="24">
+        <v>5</v>
+      </c>
+      <c r="F42" s="24">
+        <v>10</v>
+      </c>
+      <c r="G42" s="24">
+        <v>15</v>
+      </c>
+      <c r="H42" s="24">
+        <v>20</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="E45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="F45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="G45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="H45" s="30">
+        <v>1133</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="33">
+        <v>95.182900000000004</v>
+      </c>
+      <c r="C46" s="33">
+        <v>62.4176</v>
+      </c>
+      <c r="D46" s="34">
+        <v>56.845500000000001</v>
+      </c>
+      <c r="E46" s="33">
+        <v>57.365600000000001</v>
+      </c>
+      <c r="F46" s="33">
+        <v>66.099699999999999</v>
+      </c>
+      <c r="G46" s="33">
+        <v>76.855800000000002</v>
+      </c>
+      <c r="H46" s="33">
+        <v>88.075100000000006</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="33">
+        <v>392</v>
+      </c>
+      <c r="C47" s="33">
+        <v>499</v>
+      </c>
+      <c r="D47" s="35">
+        <v>404</v>
+      </c>
+      <c r="E47" s="33">
+        <v>436</v>
+      </c>
+      <c r="F47" s="33">
+        <v>602</v>
+      </c>
+      <c r="G47" s="33">
+        <v>683</v>
+      </c>
+      <c r="H47" s="33">
+        <v>676</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC6AFF-724E-4201-A460-3408B5503E87}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="C2" s="21">
+        <f>E2/5</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="21">
+        <f>E2/2</f>
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="21">
+        <f>E2*2</f>
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="34">
+        <v>13.2386</v>
+      </c>
+      <c r="C9" s="34">
+        <v>13.2324</v>
+      </c>
+      <c r="D9" s="34">
+        <v>52.374600000000001</v>
+      </c>
+      <c r="E9" s="34">
+        <v>198.65</v>
+      </c>
+      <c r="F9" s="34">
+        <v>324.60500000000002</v>
+      </c>
+      <c r="G9" s="38">
+        <v>1968.51</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29">
+        <v>108.316</v>
+      </c>
+      <c r="C10" s="29">
+        <v>108.36799999999999</v>
+      </c>
+      <c r="D10" s="29">
+        <v>108.711</v>
+      </c>
+      <c r="E10" s="29">
+        <v>109.313</v>
+      </c>
+      <c r="F10" s="29">
+        <v>108.672</v>
+      </c>
+      <c r="G10" s="36">
+        <v>108.77500000000001</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H13" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="24">
+        <f>E16/5</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4</v>
+      </c>
+      <c r="H18" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="C21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="D21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="E21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="F21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="G21" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="H21" s="29">
+        <v>198.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="33">
+        <v>322.09399999999999</v>
+      </c>
+      <c r="C22" s="33">
+        <v>363.197</v>
+      </c>
+      <c r="D22" s="33">
+        <v>303.68</v>
+      </c>
+      <c r="E22" s="34">
+        <v>109.313</v>
+      </c>
+      <c r="F22" s="33">
+        <v>35.332500000000003</v>
+      </c>
+      <c r="G22" s="33">
+        <v>10.7271</v>
+      </c>
+      <c r="H22" s="33">
+        <v>6.9454099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="33">
+        <v>4498</v>
+      </c>
+      <c r="C23" s="33">
+        <v>4498</v>
+      </c>
+      <c r="D23" s="33">
+        <v>5</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24">
+        <v>4</v>
+      </c>
+      <c r="E29" s="24">
+        <v>5</v>
+      </c>
+      <c r="F29" s="24">
+        <v>10</v>
+      </c>
+      <c r="G29" s="24">
+        <v>20</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="19">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19">
+        <v>4</v>
+      </c>
+      <c r="F30" s="19">
+        <v>4</v>
+      </c>
+      <c r="G30" s="19">
+        <v>4</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="C33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="D33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="E33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="F33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="G33" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="33">
+        <v>79.612200000000001</v>
+      </c>
+      <c r="C34" s="33">
+        <v>103.108</v>
+      </c>
+      <c r="D34" s="34">
+        <v>109.313</v>
+      </c>
+      <c r="E34" s="33">
+        <v>111.232</v>
+      </c>
+      <c r="F34" s="33">
+        <v>111.383</v>
+      </c>
+      <c r="G34" s="33">
+        <v>111.26300000000001</v>
+      </c>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="33">
+        <v>0</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="33">
+        <v>0</v>
+      </c>
+      <c r="F35" s="33">
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="23">
+        <v>3</v>
+      </c>
+      <c r="C41" s="23">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23">
+        <v>3</v>
+      </c>
+      <c r="E41" s="23">
+        <v>3</v>
+      </c>
+      <c r="F41" s="23">
+        <v>3</v>
+      </c>
+      <c r="G41" s="23">
+        <v>3</v>
+      </c>
+      <c r="H41" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="24">
+        <v>1</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2</v>
+      </c>
+      <c r="D42" s="24">
+        <v>4</v>
+      </c>
+      <c r="E42" s="24">
+        <v>5</v>
+      </c>
+      <c r="F42" s="24">
+        <v>10</v>
+      </c>
+      <c r="G42" s="24">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="E2" s="9">
-        <f>B2*5</f>
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="9">
-        <f>B2/5</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="9">
-        <f>B2*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="H2" s="9">
-        <f>B2/2</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1E-3</v>
-      </c>
-      <c r="C7">
-        <v>1E-3</v>
-      </c>
-      <c r="D7">
-        <v>1E-3</v>
-      </c>
-      <c r="E7">
-        <v>1E-3</v>
-      </c>
-      <c r="F7">
-        <v>1E-3</v>
-      </c>
-      <c r="G7">
-        <v>1E-3</v>
-      </c>
-      <c r="H7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="H42" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.15607699999999999</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="C45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="D45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="E45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="F45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="G45" s="29">
+        <v>198.65</v>
+      </c>
+      <c r="H45" s="29">
+        <v>198.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0.453656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B46" s="33">
+        <v>203.25700000000001</v>
+      </c>
+      <c r="C46" s="33">
+        <v>123.81399999999999</v>
+      </c>
+      <c r="D46" s="34">
+        <v>109.313</v>
+      </c>
+      <c r="E46" s="33">
+        <v>110.251</v>
+      </c>
+      <c r="F46" s="33">
+        <v>128.221</v>
+      </c>
+      <c r="G46" s="33">
+        <v>149.83600000000001</v>
+      </c>
+      <c r="H46" s="33">
+        <v>173.27699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B47" s="33">
+        <v>5</v>
+      </c>
+      <c r="C47" s="33">
+        <v>0</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0</v>
+      </c>
+      <c r="E47" s="33">
+        <v>0</v>
+      </c>
+      <c r="F47" s="33">
+        <v>0</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
